--- a/NguyenThiNga_Module03_ThietKe/NguyenThiNga_Module03.xlsx
+++ b/NguyenThiNga_Module03_ThietKe/NguyenThiNga_Module03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nga\Nam4\Ki1_Nam4\dam-bao-chat-luong-va-kiem-thu-phan-mem\LAB_Quality-assurance-and-software-testing\NguyenThiNga_Module03_ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F05F7A1-CBD4-4ECB-BD74-FDF0EB02CCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820DE8BF-BD8B-4EDF-BB61-64337AA0135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="13" xr2:uid="{8DEA1089-A4D4-4967-AD46-C0F6D861497C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{8DEA1089-A4D4-4967-AD46-C0F6D861497C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bai01" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="268">
   <si>
     <t>#</t>
   </si>
@@ -7213,6 +7213,18 @@
   </si>
   <si>
     <t>1,2,4,6,8,10,11</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assert.AreEqual failed. Expected:&lt;9&gt;. Actual:&lt;8&gt;. </t>
+  </si>
+  <si>
+    <t>Assert.AreEqual failed. Expected:&lt;10&gt;. Actual:&lt;9&gt;.</t>
+  </si>
+  <si>
+    <t>Assert.AreEqual failed. Expected:&lt;9&gt;. Actual:&lt;8&gt;.</t>
   </si>
 </sst>
 </file>
@@ -7610,6 +7622,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7645,33 +7684,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14884,16 +14896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366346</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>188845</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2383991</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14916,8 +14928,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="0"/>
-          <a:ext cx="2017645" cy="2735580"/>
+          <a:off x="4791808" y="12240"/>
+          <a:ext cx="2017645" cy="2633658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15112,14 +15124,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>182878</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317349</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -15144,8 +15156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="0"/>
-          <a:ext cx="3230879" cy="5760720"/>
+          <a:off x="5656730" y="0"/>
+          <a:ext cx="3230878" cy="5649558"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18223,7 +18235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C7B821-C53E-4A0A-841F-EA7051F64F46}">
   <dimension ref="A21:I35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -18241,33 +18253,33 @@
       <c r="C21" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="43" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="6" t="s">
         <v>10</v>
       </c>
@@ -18277,10 +18289,10 @@
       <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
@@ -18454,33 +18466,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="45" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
@@ -18490,10 +18502,10 @@
       <c r="O2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K3" s="1">
@@ -18673,34 +18685,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="12:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="43" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="6" t="s">
         <v>136</v>
       </c>
@@ -18713,10 +18725,10 @@
       <c r="Q2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L3" s="24">
@@ -18835,34 +18847,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="13:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="43" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="6" t="s">
         <v>149</v>
       </c>
@@ -18875,10 +18887,10 @@
       <c r="R2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="13:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M3" s="34">
@@ -19025,36 +19037,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="10:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="43" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="10:21" x14ac:dyDescent="0.3">
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="6" t="s">
         <v>167</v>
       </c>
@@ -19073,10 +19085,10 @@
       <c r="Q2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="10:21" x14ac:dyDescent="0.3">
       <c r="J3" s="34">
@@ -19233,8 +19245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B7A660-FE5C-4AC4-94B9-68E3EE4A25D9}">
   <dimension ref="P1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19246,42 +19258,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="16:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="50" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
       <c r="R2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="16:23" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P3" s="40">
@@ -19381,7 +19393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6861923-FF59-420A-B811-C3A8BF588191}">
   <dimension ref="A68:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A68" sqref="A68:G74"/>
     </sheetView>
   </sheetViews>
@@ -19395,38 +19407,38 @@
   </cols>
   <sheetData>
     <row r="68" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="45" t="s">
+      <c r="F68" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
@@ -19575,38 +19587,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="14:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
     </row>
     <row r="3" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N3" s="20">
@@ -19719,7 +19731,7 @@
   <dimension ref="N1:V6"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19731,33 +19743,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="14:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="45" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6" t="s">
         <v>97</v>
       </c>
@@ -19767,10 +19779,10 @@
       <c r="R2" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N3" s="34">
@@ -19791,7 +19803,7 @@
       <c r="S3" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="T3" s="55" t="b">
+      <c r="T3" s="43" t="b">
         <v>0</v>
       </c>
       <c r="U3" s="22" t="b">
@@ -19802,31 +19814,31 @@
       </c>
     </row>
     <row r="4" spans="14:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="N4" s="61">
+      <c r="N4" s="49">
         <v>2</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="P4" s="60">
+      <c r="P4" s="48">
         <v>2023</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="Q4" s="48">
         <v>10</v>
       </c>
-      <c r="R4" s="60">
+      <c r="R4" s="48">
         <v>0</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="T4" s="57" t="b">
+      <c r="T4" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="58" t="b">
+      <c r="U4" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -19849,10 +19861,10 @@
       <c r="S5" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="T5" s="56" t="b">
+      <c r="T5" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="56" t="b">
+      <c r="U5" s="44" t="b">
         <v>0</v>
       </c>
       <c r="V5" s="35" t="s">
@@ -19860,31 +19872,31 @@
       </c>
     </row>
     <row r="6" spans="14:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="N6" s="61">
+      <c r="N6" s="49">
         <v>4</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="48">
         <v>2023</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="48">
         <v>8</v>
       </c>
-      <c r="R6" s="60">
+      <c r="R6" s="48">
         <v>23</v>
       </c>
-      <c r="S6" s="62" t="s">
+      <c r="S6" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="T6" s="57" t="b">
+      <c r="T6" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="U6" s="58" t="b">
+      <c r="U6" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="V6" s="63" t="s">
+      <c r="V6" s="51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -19921,38 +19933,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="11:17" x14ac:dyDescent="0.3">
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
     </row>
     <row r="3" spans="11:17" x14ac:dyDescent="0.3">
       <c r="K3" s="20">
@@ -20104,42 +20116,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="14:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="43" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6" t="s">
         <v>212</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N3" s="20">
@@ -20290,7 +20302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F6C45-5CCA-4CE1-958A-36CBF44ABC24}">
   <dimension ref="A28:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -20302,33 +20314,33 @@
   </cols>
   <sheetData>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="43" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="6" t="s">
         <v>13</v>
       </c>
@@ -20338,10 +20350,10 @@
       <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
@@ -20493,38 +20505,38 @@
   </cols>
   <sheetData>
     <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
@@ -20579,38 +20591,38 @@
   </cols>
   <sheetData>
     <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
@@ -20650,10 +20662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085B2CF-8EE5-4C96-9A14-E0B3D4268F80}">
-  <dimension ref="A19:K27"/>
+  <dimension ref="A19:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20662,38 +20674,39 @@
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="9" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="43" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="49" t="s">
+      <c r="H19" s="59"/>
+      <c r="I19" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="43" t="s">
+      <c r="J19" s="59"/>
+      <c r="K19" s="52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
@@ -20703,7 +20716,7 @@
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="4" t="s">
         <v>88</v>
       </c>
@@ -20716,9 +20729,9 @@
       <c r="J20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="53"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -20738,16 +20751,25 @@
         <v>27</v>
       </c>
       <c r="G21" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="5">
         <v>8</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="5">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -20772,11 +20794,20 @@
       <c r="H22" s="9">
         <v>9</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="9">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9">
+        <v>9</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="L22" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -20801,11 +20832,20 @@
       <c r="H23" s="5">
         <v>8</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5">
+        <v>8</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="L23" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -20830,11 +20870,20 @@
       <c r="H24" s="8">
         <v>8</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="8">
+        <v>9</v>
+      </c>
+      <c r="J24" s="8">
+        <v>8</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L24" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
@@ -20842,7 +20891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>20</v>
       </c>
@@ -20870,7 +20919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB5B55E-D276-42B6-99A2-217F591B71D2}">
   <dimension ref="A17:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="96" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -20883,33 +20932,33 @@
   </cols>
   <sheetData>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
@@ -20919,10 +20968,10 @@
       <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -21035,8 +21084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4B0EB8-25EC-4BBF-806D-056D8E77BEC3}">
   <dimension ref="A36:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21047,33 +21096,33 @@
   </cols>
   <sheetData>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="43" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="6" t="s">
         <v>26</v>
       </c>
@@ -21083,10 +21132,10 @@
       <c r="E37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -21782,7 +21831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7081B60B-9279-4224-BFED-0E70363F3CA5}">
   <dimension ref="A15:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:H19"/>
     </sheetView>
   </sheetViews>
@@ -21796,42 +21845,42 @@
   </cols>
   <sheetData>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="43" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -21930,42 +21979,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="17:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="43" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
       <c r="S2" s="6" t="s">
         <v>97</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
     </row>
     <row r="3" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q3" s="1">
@@ -22153,33 +22202,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="10:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="45" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
@@ -22189,10 +22238,10 @@
       <c r="N2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J3" s="1">
@@ -22324,33 +22373,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="45" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
@@ -22360,10 +22409,10 @@
       <c r="O2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K3" s="1">
